--- a/Script/Data/ExcelSAP.xlsx
+++ b/Script/Data/ExcelSAP.xlsx
@@ -112,19 +112,19 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>4326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74304863737942</x:t>
+    <x:t>2176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74287340718076</x:t>
   </x:si>
   <x:si>
     <x:t>CUIT</x:t>
   </x:si>
   <x:si>
-    <x:t>23128005234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BELBUZZI VIVIANA NOEMI</x:t>
+    <x:t>20053860177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MELENDEZ ARTURO EDUARDO</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
@@ -133,136 +133,820 @@
     <x:t>$</x:t>
   </x:si>
   <x:si>
-    <x:t>24050</x:t>
+    <x:t>125454.57</x:t>
   </x:si>
   <x:si>
     <x:t>0</x:t>
   </x:si>
   <x:si>
-    <x:t>5050.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29100.5</x:t>
+    <x:t>26345.46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151800.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS-HOTEL- MELENDEZ</x:t>
   </x:si>
   <x:si>
     <x:t>C1</x:t>
   </x:si>
   <x:si>
-    <x:t>VTA - GTO DE COMIDA - BELBUZZI VIVIANA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23.07.2024</x:t>
+    <x:t>09.07.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8001050000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2001776</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00004A00002176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5130010401</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01.09.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151800.03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOTEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74284466207308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30716095904</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EL GRAN DANES, DE NORMA MABEL NOGUEIRA Y EDUARDO OSCAR DIAZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62562.81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13138.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS-GASTOS COMIDA- EL GRAN DANES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.07.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1010597</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00004A00000125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GASTOS COMIDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74319820671608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33613998999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEPOR JEAN S A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>224646.51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47175.76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>271822.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MRKT-GASTOS GENERALES-DEPOR JEAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31.07.2024</x:t>
   </x:si>
   <x:si>
     <x:t>8001020100</x:t>
   </x:si>
   <x:si>
-    <x:t>2001727</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00004A00004326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5130010401</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01.09.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">VTA </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> GTO DE COMIDA </x:t>
-  </x:si>
-  <x:si>
-    <x:t>A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7655</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74307041949983</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30544738387</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EL MOLINO SA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32561.98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6838.02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VTA - GTO DE HOTEL - EL MOLINO SA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24.07.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1017134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00003A00007655</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> GTO DE HOTEL </x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7607</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74329520894814</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30687579999</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AUTO HAUS SOCIEDAD ANONIMA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>274049.46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57550.39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>331599.85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VTA - GTO ARREGLO RODADO - AUTO HAUS</x:t>
+    <x:t>1017551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00192A00001130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>271822.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MRKT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GASTOS GENERALES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74328576844210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30717967638</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MITAD DE CUADRA S.A.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105785.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22214.88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS-GASTOS COMIDA-MITAD DE CUADRA</x:t>
   </x:si>
   <x:si>
     <x:t>06.08.2024</x:t>
   </x:si>
   <x:si>
-    <x:t>1007430</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00079A00007607</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> GTO ARREGLO RODADO </x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>883</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74334441851843</x:t>
+    <x:t>1017527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00002A00000058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7876</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74333474079147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30710559283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOTELERA DEL MAR SA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>762301.66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160083.35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>922385.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS-HOTEL -HOTELERA DEL MAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.08.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1017528</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00030A00007876</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">HOTEL </x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7805</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74338415136404</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30693379438</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SERVICENTRO ARECO S R L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2479.33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>520.66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS- GASTOS COMIDA-SERVICENTRO ARECO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1017529</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00020A00007805</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2999.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> GASTOS COMIDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7358</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9731</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34304737641308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30708046724</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INTEGRAL PACK EXPRESS S.A.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19650.86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4126.68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23777.54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS- MENSAJERIA- INTEGRAL PAK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.08.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8001030200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1017550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07358A00009731</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> MENSAJERIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74346141684306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20086084776</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PEREBOSCH ANTONIO ROBERTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27272.73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5727.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS-HOTEL-PEREBOSCH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.08.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2001773</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00004A00002234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2977</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74341198115939</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30712215891</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FUTURO 2 S.A.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1834.72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>385.29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2220.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS- GASTOS COMIDA- FUTURO 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.08.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1005938</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00020A00002977</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74341210211941</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8231.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1728.59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9959.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00015A00000268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5968</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74341324191616</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7595.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1594.96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00013A00005968</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74347423182131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20109136167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALONSO CONSTANTINO RAUL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59151.67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5426.53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12421.85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77000.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS-COMBUSTIBLE- ALONSO COMBUSTIBLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.08.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8001070200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2001774</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00064A00017238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71573.52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COMBUSTIBLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10973</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74351044305281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20162725751</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZUPEL BRUNO VICTOR HUGO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73966.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15533.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS- HOTEL -ZUPEL BRUNO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.08.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2001771</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00011A00010973</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> HOTEL </x:t>
+  </x:si>
+  <x:si>
+    <x:t>7870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74358125616313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3966.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>833.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00020A00007870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4800.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1567</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74365581083679</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20329375375</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OCAMPO NICOLAS FEDERICO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6198.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1301.65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7499.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MRKT- GASTOS RODADOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02.09.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8001150200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2001775</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00004A00001567</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> GASTOS RODADOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74362875513549</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30717819582</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOLDMAN S. A. S.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3553.72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>746.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS- GASTOS COMIDA- GOLDMAN SAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04.09.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1016910</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00005A00002104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74363829688858</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30710124503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATOV NEGOCIOS INMOBILIARIOS S.R.L.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29752.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6247.93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35999.98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS- GASTOS COMIDA- MATOV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1005853</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00008A00004809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7476</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74368835481120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30710843038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAS LEGENDARIAS S.R.L.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24793.39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5206.61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS- HOTEL- HOTEL LAS LEGENDARIAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1016908</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00004A00007476</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> HOTEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74361953247634</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6512.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1367.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7880</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS- GASTOS COMIDA-FUTURO 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05.09.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00015A00000280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74365924050210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20080684585</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALVAREZ MIGUEL ANGEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1487.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>312.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS- GASTOS COMIDA-ALVAREZ MIGUEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2000170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00041A00002493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8875</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74371645106920</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30714830801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOSER S.A.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121818.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25581.82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS-HOTEL- HOTEL HOSER SA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11.09.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1017133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00047A00008875</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9890</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74379742171832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33648611469</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALTO VERDE S A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14876.03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3123.97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS- HOTEL - ALTO VERDE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1005855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00012A00009890</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74379755389102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39669.42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8330.58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.09.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00011A00008169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74379874971520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.09.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00011A00008203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1396</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74374922464404</x:t>
   </x:si>
   <x:si>
     <x:t>23257238024</x:t>
@@ -271,145 +955,22 @@
     <x:t>GELARDI PATRICIA NOELIA</x:t>
   </x:si>
   <x:si>
-    <x:t>15289.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3210.74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VTA - GTO COMIDA - GELARDI PATRICIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.08.2024</x:t>
+    <x:t>8264.46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1735.54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VTAS- GASTOS COMIDA-GELARDI</x:t>
   </x:si>
   <x:si>
     <x:t>2001720</x:t>
   </x:si>
   <x:si>
-    <x:t>00002A00000883</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> GTO COMIDA </x:t>
-  </x:si>
-  <x:si>
-    <x:t>4428</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74338575964642</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20323657468</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CARPI LUCAS ROBERTO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10495.86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2204.13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12699.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VTA - GTO COMIDA - CARPI LUCAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.08.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2001721</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00004A00004428</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5657</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74339649671477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20318582999</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REINHOLD YAZLLE LUIS IGNACIO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34710.76</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7289.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VTA - GTO HOTEL - REINHOLD YAZLLE LUIS IGNACIO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16.08.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2001722</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00002A00005657</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42000.02</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> GTO HOTEL </x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 - Factura C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74350692367298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27316737310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RUETE GUEMES AGUSTINA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADM - GASTO PREOCUPACIONAL - RUETE AGUSTINA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26.08.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1009066</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00001C00000150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5130010802</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ADM </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> GASTO PREOCUPACIONAL </x:t>
-  </x:si>
-  <x:si>
-    <x:t>C</x:t>
+    <x:t>00002A00001396</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -767,7 +1328,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AD8"/>
+  <x:dimension ref="A1:AD26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -867,7 +1428,7 @@
     </x:row>
     <x:row r="2" spans="1:30">
       <x:c r="A2" s="1">
-        <x:v>45496</x:v>
+        <x:v>45482</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>30</x:v>
@@ -939,27 +1500,27 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="Z2" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="AA2" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AB2" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AC2" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:30">
       <x:c r="A3" s="1">
-        <x:v>45497</x:v>
+        <x:v>45483</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>55</x:v>
@@ -1001,10 +1562,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="R3" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="S3" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="T3" s="0" t="s">
         <x:v>63</x:v>
@@ -1028,18 +1589,18 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="AA3" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AB3" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="AC3" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:30">
       <x:c r="A4" s="1">
-        <x:v>45510</x:v>
+        <x:v>45504</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>30</x:v>
@@ -1087,22 +1648,22 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="R4" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="S4" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="T4" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="U4" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="V4" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="W4" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="X4" s="0" t="s">
         <x:v>49</x:v>
@@ -1111,42 +1672,42 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="Z4" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AA4" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AB4" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="AC4" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:30">
       <x:c r="A5" s="1">
-        <x:v>45518</x:v>
+        <x:v>45510</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
         <x:v>37</x:v>
@@ -1155,7 +1716,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="L5" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M5" s="0" t="s">
         <x:v>40</x:v>
@@ -1167,28 +1728,28 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="P5" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="Q5" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="R5" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="S5" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="T5" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="U5" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="V5" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="W5" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="X5" s="0" t="s">
         <x:v>49</x:v>
@@ -1197,42 +1758,42 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="Z5" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="AA5" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AB5" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="AC5" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:30">
       <x:c r="A6" s="1">
-        <x:v>45519</x:v>
+        <x:v>45518</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
         <x:v>37</x:v>
@@ -1241,7 +1802,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="L6" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="M6" s="0" t="s">
         <x:v>40</x:v>
@@ -1253,28 +1814,28 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="P6" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q6" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="R6" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="S6" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="T6" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="U6" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="V6" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="W6" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="X6" s="0" t="s">
         <x:v>49</x:v>
@@ -1283,42 +1844,42 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="Z6" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="AA6" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AB6" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="AC6" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:30">
       <x:c r="A7" s="1">
-        <x:v>45520</x:v>
+        <x:v>45518</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
         <x:v>37</x:v>
@@ -1327,7 +1888,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="L7" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
         <x:v>40</x:v>
@@ -1339,28 +1900,28 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="P7" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="Q7" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="R7" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="S7" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="T7" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="U7" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="V7" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="W7" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="X7" s="0" t="s">
         <x:v>49</x:v>
@@ -1369,42 +1930,42 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="Z7" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AA7" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AB7" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AC7" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:30">
       <x:c r="A8" s="1">
-        <x:v>45530</x:v>
+        <x:v>45519</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
         <x:v>37</x:v>
@@ -1413,55 +1974,1606 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="L8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="M8" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
+      <x:c r="N8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="O8" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="P8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="Q8" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="R8" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="S8" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="T8" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="U8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="V8" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="W8" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="X8" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="Y8" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="Z8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="AA8" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AB8" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="AC8" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:30">
+      <x:c r="A9" s="1">
+        <x:v>45524</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N9" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O9" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P9" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="Q9" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R9" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="S9" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T9" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="U9" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="V9" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="W9" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="X9" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="Z9" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="AA9" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB9" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AC9" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:30">
+      <x:c r="A10" s="1">
+        <x:v>45525</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N10" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O10" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P10" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="Q10" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="R10" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="S10" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T10" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="U10" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="V10" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="W10" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="X10" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y10" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="Z10" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="AA10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB10" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AC10" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:30">
+      <x:c r="A11" s="1">
+        <x:v>45525</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="M11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P11" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="Q11" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="R11" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="S11" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T11" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="U11" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="V11" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="W11" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="X11" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y11" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="Z11" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="AA11" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB11" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AC11" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:30">
+      <x:c r="A12" s="1">
+        <x:v>45526</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="M12" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N12" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O12" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P12" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="Q12" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="R12" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="S12" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T12" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="U12" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="V12" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="W12" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="X12" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y12" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="Z12" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="AA12" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB12" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AC12" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:30">
+      <x:c r="A13" s="1">
+        <x:v>45527</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="N13" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O13" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P13" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="Q13" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="R13" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="S13" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T13" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="U13" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="V13" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="W13" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="X13" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y13" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="Z13" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="AA13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB13" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="AC13" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:30">
+      <x:c r="A14" s="1">
+        <x:v>45533</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="M14" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N14" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O14" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P14" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="Q14" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="R14" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="S14" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T14" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="U14" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="V14" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="W14" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="X14" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y14" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="Z14" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="AA14" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB14" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="AC14" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:30">
+      <x:c r="A15" s="1">
+        <x:v>45533</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N15" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O15" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P15" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="Q15" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="R15" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="S15" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T15" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="U15" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="V15" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="W15" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="X15" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y15" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="Z15" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="AA15" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB15" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AC15" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:30">
+      <x:c r="A16" s="1">
+        <x:v>45537</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N16" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O16" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P16" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="Q16" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="R16" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="S16" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T16" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="U16" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="V16" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="W16" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="X16" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y16" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="Z16" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="AA16" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AB16" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="AC16" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:30">
+      <x:c r="A17" s="1">
+        <x:v>45539</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L17" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N17" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O17" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P17" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="Q17" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="R17" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="S17" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T17" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="U17" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="V17" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="W17" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="X17" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y17" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="Z17" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="AA17" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB17" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AC17" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:30">
+      <x:c r="A18" s="1">
+        <x:v>45539</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K18" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L18" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="M18" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N18" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O18" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P18" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="Q18" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="R18" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="S18" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T18" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="U18" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="V18" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="W18" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="X18" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y18" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="Z18" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="AA18" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB18" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AC18" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:30">
+      <x:c r="A19" s="1">
+        <x:v>45539</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K19" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L19" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="M19" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N19" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O19" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P19" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="Q19" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="R19" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="S19" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="T19" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="U19" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="V19" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="W19" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="X19" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y19" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="Z19" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="AA19" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB19" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="AC19" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:30">
+      <x:c r="A20" s="1">
+        <x:v>45540</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K20" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L20" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="M20" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N20" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O20" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P20" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="Q20" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="R20" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="S20" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T20" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="U20" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="V20" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="W20" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="X20" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y20" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="Z20" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="AA20" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB20" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AC20" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:30">
+      <x:c r="A21" s="1">
+        <x:v>45540</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K21" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L21" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="M21" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N21" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O21" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P21" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="Q21" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="R21" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="S21" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T21" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="U21" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="V21" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="W21" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="X21" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y21" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="Z21" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="AA21" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB21" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AC21" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:30">
+      <x:c r="A22" s="1">
+        <x:v>45546</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K22" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L22" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="M22" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N22" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O22" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P22" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="Q22" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="R22" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="S22" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T22" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="U22" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="V22" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="W22" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="X22" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y22" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="Z22" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="AA22" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB22" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AC22" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:30">
+      <x:c r="A23" s="1">
+        <x:v>45546</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K23" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L23" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="M23" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N23" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O23" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P23" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="Q23" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="R23" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="S23" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T23" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="U23" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="V23" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="W23" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="X23" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y23" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="Z23" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="AA23" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB23" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="AC23" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:30">
+      <x:c r="A24" s="1">
+        <x:v>45547</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="J24" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K24" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L24" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="M24" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N24" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O24" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P24" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="Q24" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="R24" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="S24" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T24" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="U24" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="V24" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="W24" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="X24" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y24" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="Z24" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="AA24" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB24" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="AC24" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:30">
+      <x:c r="A25" s="1">
+        <x:v>45548</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="J25" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K25" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L25" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="M25" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N25" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O25" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P25" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="Q25" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="R25" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="S25" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T25" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="U25" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="V25" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="W25" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="X25" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y25" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="Z25" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="AA25" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB25" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="AC25" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:30">
+      <x:c r="A26" s="1">
+        <x:v>45548</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="J26" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K26" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L26" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="M26" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N26" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O26" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P26" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="Q26" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="R26" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="S26" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T26" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="U26" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="V26" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="W26" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="X26" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y26" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="Z26" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="AA26" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB26" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AC26" s="0" t="s">
+        <x:v>54</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
